--- a/dtpu_configurations/only_integer16/50mhz/mxu_6x6/power.xlsx
+++ b/dtpu_configurations/only_integer16/50mhz/mxu_6x6/power.xlsx
@@ -175,22 +175,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.021107200533151627</v>
+        <v>0.021285485476255417</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.008696257136762142</v>
+        <v>0.008561698719859123</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.006868374068289995</v>
+        <v>0.006609984673559666</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.005499905440956354</v>
+        <v>0.006753530353307724</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>2.7594756829785183E-5</v>
+        <v>1.2515904381871223E-4</v>
       </c>
       <c r="G2" t="n" s="4">
-        <v>0.0017428749706596136</v>
+        <v>0.0015102749457582831</v>
       </c>
       <c r="H2" t="n" s="4">
         <v>9.700000518932939E-4</v>
@@ -199,10 +199,10 @@
         <v>1.258823275566101</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.126886785030365</v>
+        <v>0.12740620970726013</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.4306288957595825</v>
+        <v>1.4320522546768188</v>
       </c>
     </row>
   </sheetData>
